--- a/templates/MemberTemplate.xlsx
+++ b/templates/MemberTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minja Junior\Documents\NEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minja Junior\Documents\NEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Member Name</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Pledge</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
   </si>
 </sst>
 </file>
@@ -379,19 +382,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,12 +404,15 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;CN-E-P Members Template</oddHeader>
+    <oddHeader>&amp;CEvents Members Template</oddHeader>
     <oddFooter>&amp;C&amp;D</oddFooter>
   </headerFooter>
 </worksheet>
